--- a/Results/resultados_regresiones ols.xlsx
+++ b/Results/resultados_regresiones ols.xlsx
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.4633273674048334</v>
+        <v>0.4030976049049029</v>
       </c>
     </row>
     <row r="2">
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5395591556984121</v>
+        <v>0.6064956066065673</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8819478391372708</v>
+        <v>0.893876353733588</v>
       </c>
     </row>
     <row r="4">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9812891188746188</v>
+        <v>0.9824531901800512</v>
       </c>
     </row>
     <row r="5">
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5480732355096891</v>
+        <v>0.5772178449460152</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8500998022090903</v>
+        <v>0.85797693006109</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7682454782464296</v>
+        <v>0.8201465885657004</v>
       </c>
     </row>
     <row r="8">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6888520224383022</v>
+        <v>0.700888402316399</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7945090623371044</v>
+        <v>0.8353034144724621</v>
       </c>
     </row>
     <row r="10">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8226839841310143</v>
+        <v>0.8552186486087979</v>
       </c>
     </row>
     <row r="11">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.4131713856471827</v>
+        <v>0.3916744630439968</v>
       </c>
     </row>
   </sheetData>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.3198604260180067</v>
+        <v>0.2435296378992828</v>
       </c>
     </row>
     <row r="2">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4164710092019479</v>
+        <v>0.5013013628281249</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +580,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8503893406888184</v>
+        <v>0.8655066661178145</v>
       </c>
     </row>
     <row r="4">
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9762872001579327</v>
+        <v>0.977762458842045</v>
       </c>
     </row>
     <row r="5">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4272611301508932</v>
+        <v>0.4641968728028708</v>
       </c>
     </row>
     <row r="6">
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8100274721065699</v>
+        <v>0.8200103668100942</v>
       </c>
     </row>
     <row r="7">
@@ -620,7 +620,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.706291299163792</v>
+        <v>0.7720669637268283</v>
       </c>
     </row>
     <row r="8">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6056738502188385</v>
+        <v>0.6209278762029611</v>
       </c>
     </row>
     <row r="9">
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7395758413777165</v>
+        <v>0.7912756143809421</v>
       </c>
     </row>
     <row r="10">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7752826729581171</v>
+        <v>0.8165147229893677</v>
       </c>
     </row>
     <row r="11">
@@ -660,7 +660,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2562964095330632</v>
+        <v>0.2290527848478375</v>
       </c>
     </row>
   </sheetData>
@@ -689,88 +689,88 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.3421365240818492</v>
+        <v>0.8417814867344535</v>
       </c>
       <c r="C1" t="n">
-        <v>0.4792351740960904</v>
+        <v>0.2636718498636896</v>
       </c>
       <c r="D1" t="n">
-        <v>0.5998977636404981</v>
+        <v>0.3491375520941665</v>
       </c>
       <c r="E1" t="n">
-        <v>0.0626961849938595</v>
+        <v>0.001831926995127487</v>
       </c>
       <c r="F1" t="n">
-        <v>0.3565450246972347</v>
+        <v>0.02952172182078986</v>
       </c>
       <c r="G1" t="n">
-        <v>0.007632972279246885</v>
+        <v>0.007424627989436793</v>
       </c>
       <c r="H1" t="n">
-        <v>0.9234243431076004</v>
+        <v>0.2057611122359624</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5255868743490872</v>
+        <v>0.5190950201301034</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6135030204607452</v>
+        <v>0.6319878365243203</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7579795938130727</v>
+        <v>0.7990613037635395</v>
       </c>
       <c r="L1" t="n">
-        <v>0.4749784088998333</v>
+        <v>0.6560588825519099</v>
       </c>
       <c r="M1" t="n">
-        <v>0.121462017089854</v>
+        <v>0.1177474474192865</v>
       </c>
       <c r="N1" t="n">
-        <v>0.004961717486983218</v>
+        <v>0.2879516253139552</v>
       </c>
       <c r="O1" t="n">
-        <v>0.1301029421891206</v>
+        <v>0.6800990368288748</v>
       </c>
       <c r="P1" t="n">
-        <v>7.657097468806985e-05</v>
+        <v>0.004373669065591547</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1573070215609135</v>
+        <v>0.5513279371292847</v>
       </c>
       <c r="R1" t="n">
-        <v>8.313302457523818e-08</v>
+        <v>0.0001786393149171622</v>
       </c>
       <c r="S1" t="n">
-        <v>0.6529726821297168</v>
+        <v>0.007915089335447328</v>
       </c>
       <c r="T1" t="n">
-        <v>0.08147853415796026</v>
+        <v>0.2875377601078297</v>
       </c>
       <c r="U1" t="n">
-        <v>0.0001710031459478299</v>
+        <v>0.007031975460814187</v>
       </c>
       <c r="V1" t="n">
-        <v>0.322166787522763</v>
+        <v>0.4518882736233086</v>
       </c>
       <c r="W1" t="n">
-        <v>0.07901134182893664</v>
+        <v>0.2778554665154113</v>
       </c>
       <c r="X1" t="n">
-        <v>0.2001541420172876</v>
+        <v>0.3721994913173464</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9231378385028729</v>
+        <v>0.5799295172998674</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.005469225972066617</v>
+        <v>0.003294461839891532</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.1093177874050069</v>
+        <v>0.03885444649476135</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.3921592542454527</v>
+        <v>0.411155395245513</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.4079668199549679</v>
+        <v>0.781898728334977</v>
       </c>
     </row>
     <row r="2">
@@ -780,88 +780,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4617375079216443</v>
+        <v>0.2877176475871601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6754481278837237</v>
+        <v>0.7255748450487481</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7360495819478456</v>
+        <v>0.7871812851833953</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8656791052568094</v>
+        <v>0.4484667184835615</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3925134245427072</v>
+        <v>0.9169092419289331</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1793188299540824</v>
+        <v>0.2891650357157335</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001344425471330976</v>
+        <v>0.1500777229501145</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2651008343152431</v>
+        <v>0.1533529512743357</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2196485371510703</v>
+        <v>0.1450724422004886</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3332907581943552</v>
+        <v>1.396574416626498e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5997222851658492</v>
+        <v>0.5194193561961999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3441554682060217</v>
+        <v>0.5703560503157827</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8887111170473974</v>
+        <v>0.9899182034602581</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1435636078524599</v>
+        <v>0.2564765529979961</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4014119400688461</v>
+        <v>0.6015045225530169</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.288882061942818</v>
+        <v>0.3838518521663956</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7038132726615085</v>
+        <v>0.2761910523376168</v>
       </c>
       <c r="S2" t="n">
-        <v>0.09355234271181592</v>
+        <v>0.8077381518914378</v>
       </c>
       <c r="T2" t="n">
-        <v>0.08351788526353257</v>
+        <v>0.2348669734402411</v>
       </c>
       <c r="U2" t="n">
-        <v>0.472646860352455</v>
+        <v>0.2519416315517081</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9588971187252133</v>
+        <v>0.7882879715944624</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8133345799139698</v>
+        <v>0.4450394162959888</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06651271459071599</v>
+        <v>0.09238970178365447</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.1060610771071898</v>
+        <v>0.1344717022505104</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.2622786350465884</v>
+        <v>0.9179729834555501</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.3119054028142243</v>
+        <v>0.0367756414646562</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0007431937356608484</v>
+        <v>0.4891279433371702</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4759469552451894</v>
+        <v>0.005310142642911577</v>
       </c>
     </row>
     <row r="3">
@@ -871,88 +871,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3814732505448897</v>
+        <v>0.1392351627516931</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2598690481062516</v>
+        <v>0.7846604166900242</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2915237885648231</v>
+        <v>0.8174925336744231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4421695115283433</v>
+        <v>0.7882729785918954</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5472405905126103</v>
+        <v>0.7825959106531287</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5093614609274724</v>
+        <v>0.7466047066316079</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4312393111024817</v>
+        <v>0.6360649338641534</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3935682029083011</v>
+        <v>0.6260799358526619</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4690399810630936</v>
+        <v>0.3426886512268735</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2305771657283988</v>
+        <v>6.004594807102496e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.442955903586877</v>
+        <v>0.3194843748277362</v>
       </c>
       <c r="M3" t="n">
-        <v>0.009579845369621146</v>
+        <v>0.04738943242446927</v>
       </c>
       <c r="N3" t="n">
-        <v>0.05102893455979246</v>
+        <v>0.7449919104363861</v>
       </c>
       <c r="O3" t="n">
-        <v>0.9632211901946491</v>
+        <v>0.7054281364430607</v>
       </c>
       <c r="P3" t="n">
-        <v>0.3225227630399323</v>
+        <v>0.8704724164480477</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3144793822998884</v>
+        <v>0.1627863688236336</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7236820649019283</v>
+        <v>0.8130169301676021</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9323236623333586</v>
+        <v>0.412565657647795</v>
       </c>
       <c r="T3" t="n">
-        <v>0.04674281184491483</v>
+        <v>0.04434004313820478</v>
       </c>
       <c r="U3" t="n">
-        <v>0.3994655933206824</v>
+        <v>0.3964671960201978</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3657534238015197</v>
+        <v>0.1500039602385768</v>
       </c>
       <c r="W3" t="n">
-        <v>0.758069914680408</v>
+        <v>0.880346510429217</v>
       </c>
       <c r="X3" t="n">
-        <v>0.41180283921631</v>
+        <v>0.2707385235151337</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5058172171582347</v>
+        <v>0.4031453323424985</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1216338687511994</v>
+        <v>0.5913953938195777</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.3775690285010123</v>
+        <v>0.3727738342212887</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.444493689321106e-20</v>
+        <v>9.290426594768818e-13</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.091798538683697e-14</v>
+        <v>1.684326480021623e-10</v>
       </c>
     </row>
     <row r="4">
@@ -962,88 +962,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08645183461596967</v>
+        <v>0.1906455618712175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5523702429335864</v>
+        <v>0.8044352780062838</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2799830759382781</v>
+        <v>0.8153779080077495</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8373473395063157</v>
+        <v>0.3197584379810046</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4882599165601657</v>
+        <v>0.1246946079099105</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3052271024778679</v>
+        <v>0.2291778379007358</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5964427512677146</v>
+        <v>0.7780381486098956</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7150448452177762</v>
+        <v>0.1733665987243121</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5909765862254097</v>
+        <v>0.8322131997760263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7119589062444243</v>
+        <v>0.1254192285327839</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9590658084817818</v>
+        <v>0.5961007195949408</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7884227398586037</v>
+        <v>0.425057813102161</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03084410366388594</v>
+        <v>0.7205240593872</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2368946096887569</v>
+        <v>0.007720408535820807</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1346461962083894</v>
+        <v>0.2607033574426834</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.9477107048669924</v>
+        <v>0.9771253766656359</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3315210232860727</v>
+        <v>0.7481241177333078</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1891780788359693</v>
+        <v>0.4527261737256522</v>
       </c>
       <c r="T4" t="n">
-        <v>0.864645834525639</v>
+        <v>0.8024809902907575</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8297800381040491</v>
+        <v>0.2804982888409051</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7061837249657019</v>
+        <v>0.8481666570122549</v>
       </c>
       <c r="W4" t="n">
-        <v>7.177487039047812e-05</v>
+        <v>2.668469258476346e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.3106183962031831</v>
+        <v>0.243837954782923</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3763677210110079</v>
+        <v>0.4602202293741382</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.01838649777565866</v>
+        <v>0.0106410310817369</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.6642338478257224</v>
+        <v>0.8324527989416285</v>
       </c>
       <c r="AB4" t="n">
-        <v>6.32718449318427e-06</v>
+        <v>6.235001848249817e-07</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.700844019422369e-73</v>
+        <v>3.499982095491665e-70</v>
       </c>
     </row>
     <row r="5">
@@ -1053,88 +1053,88 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1701245555615314</v>
+        <v>0.2793736069586516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5594694810269332</v>
+        <v>0.2693033711686947</v>
       </c>
       <c r="D5" t="n">
-        <v>0.371773029800276</v>
+        <v>0.4029014510478366</v>
       </c>
       <c r="E5" t="n">
-        <v>0.902234533714602</v>
+        <v>0.9393458999190418</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9492018091479069</v>
+        <v>0.5181410931839201</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7292741268714347</v>
+        <v>0.5155428596860552</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1690947683785725</v>
+        <v>0.7930827948791195</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3426830339282028</v>
+        <v>0.3987791225799181</v>
       </c>
       <c r="J5" t="n">
-        <v>0.004828913334953923</v>
+        <v>0.09213664838554893</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2807396124397254</v>
+        <v>0.01021316924080781</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01356996864592046</v>
+        <v>0.001978390814142614</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3018473148887001</v>
+        <v>0.3438504296600433</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7286135109861676</v>
+        <v>0.3091172117950931</v>
       </c>
       <c r="O5" t="n">
-        <v>0.807507342833221</v>
+        <v>0.02597331028223798</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5400134291561995</v>
+        <v>0.2045105333564287</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8875522633603193</v>
+        <v>0.5834667699368441</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3191900248228388</v>
+        <v>0.1473890083232126</v>
       </c>
       <c r="S5" t="n">
-        <v>0.476190351472246</v>
+        <v>0.2114159974638469</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08906787149358462</v>
+        <v>0.1272806626586249</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2795040793537069</v>
+        <v>0.04335345676010047</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7323812618305328</v>
+        <v>0.6589035495422755</v>
       </c>
       <c r="W5" t="n">
-        <v>0.9144982762616676</v>
+        <v>0.4137017656576902</v>
       </c>
       <c r="X5" t="n">
-        <v>0.4312692291708519</v>
+        <v>0.8845209252409266</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6500227746752287</v>
+        <v>0.9450960778425017</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.03408168098392114</v>
+        <v>0.1643127959816969</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5991987796008621</v>
+        <v>0.2399702849326643</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.636579112232874e-05</v>
+        <v>0.00791587355061393</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1855363672387489</v>
+        <v>0.6375329673362953</v>
       </c>
     </row>
     <row r="6">
@@ -1144,88 +1144,88 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8056969614253908</v>
+        <v>0.8888690092741193</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2073786933939808</v>
+        <v>0.3870787123771302</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1923656714354257</v>
+        <v>0.3828913455822693</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2389692668328486</v>
+        <v>0.5520087646744498</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7591740904626313</v>
+        <v>0.6656171798122086</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2695953840254369</v>
+        <v>0.5799333461671046</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8662801731500269</v>
+        <v>0.7492545102784565</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4134027726403816</v>
+        <v>0.6138964989600562</v>
       </c>
       <c r="J6" t="n">
-        <v>0.03667445279739728</v>
+        <v>0.3839476943056743</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2142986103303443</v>
+        <v>4.731348292632261e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8360214717542505</v>
+        <v>0.7403094223341202</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6976961266674331</v>
+        <v>0.7057612133479698</v>
       </c>
       <c r="N6" t="n">
-        <v>0.09468918878562887</v>
+        <v>0.8624848837179754</v>
       </c>
       <c r="O6" t="n">
-        <v>0.001458413803564662</v>
+        <v>0.3515561900032863</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3757708685951415</v>
+        <v>0.3428254979900842</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.6692148402849252</v>
+        <v>0.2015967383494368</v>
       </c>
       <c r="R6" t="n">
-        <v>0.06258047097020156</v>
+        <v>0.7301602375423486</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3075161972361275</v>
+        <v>0.5833638823009388</v>
       </c>
       <c r="T6" t="n">
-        <v>0.6725729749315673</v>
+        <v>0.2124971030055944</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0685724422733041</v>
+        <v>0.05761365879240834</v>
       </c>
       <c r="V6" t="n">
-        <v>0.9306800355947915</v>
+        <v>0.9305864251026007</v>
       </c>
       <c r="W6" t="n">
-        <v>0.7287240343450023</v>
+        <v>0.4491842155877296</v>
       </c>
       <c r="X6" t="n">
-        <v>0.883473901389882</v>
+        <v>0.3985234782848466</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.8297362412036643</v>
+        <v>0.4183133037389279</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2159812499964698</v>
+        <v>0.4213813573519382</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.03238438114822417</v>
+        <v>0.02083235999332741</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.772307635455194e-09</v>
+        <v>0.01968638982655843</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.999605984918293e-11</v>
+        <v>9.149379903756273e-07</v>
       </c>
     </row>
     <row r="7">
@@ -1235,88 +1235,88 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3567932474828097</v>
+        <v>0.3385675772847971</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8030450440875914</v>
+        <v>0.5913153336064095</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7220527479962915</v>
+        <v>0.590023518139127</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5892638949981959</v>
+        <v>0.9660608433728579</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8134903196844839</v>
+        <v>0.7489287389150405</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1261006376866817</v>
+        <v>0.4128594444863931</v>
       </c>
       <c r="H7" t="n">
-        <v>0.2015563036437797</v>
+        <v>0.8745547572803084</v>
       </c>
       <c r="I7" t="n">
-        <v>0.560405691636321</v>
+        <v>0.6456277729489939</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3437251785953537</v>
+        <v>0.9418691009723417</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8610538229625149</v>
+        <v>3.267811814618234e-08</v>
       </c>
       <c r="L7" t="n">
-        <v>0.6080852377422319</v>
+        <v>0.9921931360726339</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6120908344239266</v>
+        <v>0.7929851751607471</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07748482679059898</v>
+        <v>0.6766351759008117</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06572698759990515</v>
+        <v>0.05325082163740977</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6464739855089402</v>
+        <v>0.4622801949202123</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5018401640261907</v>
+        <v>0.1627164406604002</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07080515701995684</v>
+        <v>0.5451968679644119</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1776238784382534</v>
+        <v>0.7376685388992394</v>
       </c>
       <c r="T7" t="n">
-        <v>0.5130009126173877</v>
+        <v>0.1277937174642392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2549483502280346</v>
+        <v>0.2539479789992287</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8056420668446843</v>
+        <v>0.6431676656353211</v>
       </c>
       <c r="W7" t="n">
-        <v>0.644496091776397</v>
+        <v>0.3753537377708841</v>
       </c>
       <c r="X7" t="n">
-        <v>0.6836094938915365</v>
+        <v>0.8806331039113969</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6427408691191179</v>
+        <v>0.9580801344602922</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.01349148327336831</v>
+        <v>0.05027531843256238</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1999773411446361</v>
+        <v>0.2288388569330775</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.622478239669297e-08</v>
+        <v>0.008065795958136451</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.612598574594807e-06</v>
+        <v>0.005731655478105268</v>
       </c>
     </row>
     <row r="8">
@@ -1326,88 +1326,88 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4115994861800822</v>
+        <v>0.4815364527263796</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7757637088424516</v>
+        <v>0.4122353442486989</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6418068848474878</v>
+        <v>0.3715461192521478</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7163827497418234</v>
+        <v>0.732973759996884</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4489002768766295</v>
+        <v>0.9032200809230015</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8105319144909434</v>
+        <v>0.4291432550369882</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5570602530567418</v>
+        <v>0.7251384243140978</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7191200932601275</v>
+        <v>0.7310739131640529</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02717509897641077</v>
+        <v>0.741657697958336</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8161958324596255</v>
+        <v>0.0001733424875418957</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7022284690221128</v>
+        <v>0.8239895163596893</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4474768566436276</v>
+        <v>0.5923561588097672</v>
       </c>
       <c r="N8" t="n">
-        <v>0.100436502968198</v>
+        <v>0.6506785084388116</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02632275905576629</v>
+        <v>0.05620153671144256</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7046530216050495</v>
+        <v>0.5075084946736176</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01196473017515914</v>
+        <v>0.002316157394930551</v>
       </c>
       <c r="R8" t="n">
-        <v>0.1010517329839534</v>
+        <v>0.6920184641891691</v>
       </c>
       <c r="S8" t="n">
-        <v>0.33060229164488</v>
+        <v>0.1127203808070001</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1486087618597643</v>
+        <v>0.02043886424197334</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3268373961116767</v>
+        <v>0.09335896171318911</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5546803909435412</v>
+        <v>0.5939370117904024</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1263585747974037</v>
+        <v>0.09266254138929038</v>
       </c>
       <c r="X8" t="n">
-        <v>0.9632120298643718</v>
+        <v>0.5033167296558436</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7250387988150528</v>
+        <v>0.9344164284060499</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1724170028515312</v>
+        <v>0.3925207522600239</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.07238056376335812</v>
+        <v>0.03462839209902987</v>
       </c>
       <c r="AB8" t="n">
-        <v>2.775667982713727e-07</v>
+        <v>0.00677886816050082</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5479289095884168</v>
+        <v>0.2671006525536584</v>
       </c>
     </row>
     <row r="9">
@@ -1417,88 +1417,88 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5375206955677443</v>
+        <v>0.8383192855084403</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4014567140135518</v>
+        <v>0.5854496272034384</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2950979147920776</v>
+        <v>0.4938061321849537</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1965427133780578</v>
+        <v>0.9136245806274713</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8018101863855589</v>
+        <v>0.9885995098988911</v>
       </c>
       <c r="G9" t="n">
-        <v>0.12164951401738</v>
+        <v>0.179316007407934</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3046025217605046</v>
+        <v>0.7898796233105507</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7840240347134099</v>
+        <v>0.8238501640590992</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2229826713329662</v>
+        <v>0.6227902732045114</v>
       </c>
       <c r="K9" t="n">
-        <v>0.258885779791827</v>
+        <v>8.823026187831428e-09</v>
       </c>
       <c r="L9" t="n">
-        <v>0.859301935003179</v>
+        <v>0.8598449637559182</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8811305265133358</v>
+        <v>0.8730617165299122</v>
       </c>
       <c r="N9" t="n">
-        <v>0.08790443615382114</v>
+        <v>0.5570263503051714</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01733894209014427</v>
+        <v>0.4031145585822853</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5369970457578515</v>
+        <v>0.5289149427108741</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8500906587803803</v>
+        <v>0.3502003093629891</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1030626924833265</v>
+        <v>0.9413664688480399</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1404853399033127</v>
+        <v>0.9771477684648202</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5564761765266257</v>
+        <v>0.1424932631560476</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2014936307416175</v>
+        <v>0.2375070379051433</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5603811240328376</v>
+        <v>0.5126738800007082</v>
       </c>
       <c r="W9" t="n">
-        <v>0.7434345454992632</v>
+        <v>0.8726255529127155</v>
       </c>
       <c r="X9" t="n">
-        <v>0.6658281313857943</v>
+        <v>0.9438220778280945</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.6589217935327607</v>
+        <v>0.9822088563986067</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1521611062215207</v>
+        <v>0.4658449088655842</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1387657812597863</v>
+        <v>0.101118778471938</v>
       </c>
       <c r="AB9" t="n">
-        <v>7.556368031695475e-07</v>
+        <v>0.1550393544629821</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.529528255715247e-09</v>
+        <v>4.373952299096444e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1508,88 +1508,88 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5175485781534683</v>
+        <v>0.5979756718589033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5038352228938634</v>
+        <v>0.5109596337739453</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4335550967113423</v>
+        <v>0.4928860751994901</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4385703897304412</v>
+        <v>0.7428750967138101</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6348278772631457</v>
+        <v>0.8722659262381702</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1446665454393009</v>
+        <v>0.5076815643905579</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2640272958476163</v>
+        <v>0.9472624341217533</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7932221271293037</v>
+        <v>0.6716699282365748</v>
       </c>
       <c r="J10" t="n">
-        <v>0.160263495889918</v>
+        <v>0.6426000900467481</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6943701507097841</v>
+        <v>4.408522280783401e-08</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7306460657561724</v>
+        <v>0.9435534060252848</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5684725160048669</v>
+        <v>0.7549283449403535</v>
       </c>
       <c r="N10" t="n">
-        <v>0.07040260345691876</v>
+        <v>0.6291359308863587</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02242164012457474</v>
+        <v>0.1360485182418233</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4627012121149949</v>
+        <v>0.3362406737890848</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.5641877649784863</v>
+        <v>0.17379829952855</v>
       </c>
       <c r="R10" t="n">
-        <v>0.04289377010438441</v>
+        <v>0.5443093790855589</v>
       </c>
       <c r="S10" t="n">
-        <v>0.1997035298259317</v>
+        <v>0.5904732724472004</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5285372530748933</v>
+        <v>0.1276830543485661</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1295472229323001</v>
+        <v>0.128625649574601</v>
       </c>
       <c r="V10" t="n">
-        <v>0.9258958125038019</v>
+        <v>0.8190240897537685</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7412510245406214</v>
+        <v>0.4155846495750933</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7351742059655828</v>
+        <v>0.7375489185742377</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7322868135211028</v>
+        <v>0.8407188989213353</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.03659124338294278</v>
+        <v>0.1149326657047986</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.06582499182997975</v>
+        <v>0.06063316783975337</v>
       </c>
       <c r="AB10" t="n">
-        <v>3.925306374109822e-09</v>
+        <v>0.006217571373871</v>
       </c>
       <c r="AC10" t="n">
-        <v>4.535781206400766e-09</v>
+        <v>5.821638784093659e-05</v>
       </c>
     </row>
     <row r="11">
@@ -1599,88 +1599,88 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2813166567192518</v>
+        <v>0.6822040747973401</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05706193017401712</v>
+        <v>0.01731377044250184</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2104868481130953</v>
+        <v>0.05879220261716511</v>
       </c>
       <c r="E11" t="n">
-        <v>0.467462956211666</v>
+        <v>0.9177869490347257</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1891594058137707</v>
+        <v>0.7904638206958379</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2894205755762488</v>
+        <v>0.5707617468777531</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5261219625037974</v>
+        <v>0.1814230251005013</v>
       </c>
       <c r="I11" t="n">
-        <v>0.455985795078706</v>
+        <v>0.09172334041826932</v>
       </c>
       <c r="J11" t="n">
-        <v>0.7106955424855185</v>
+        <v>0.6116929721267488</v>
       </c>
       <c r="K11" t="n">
-        <v>0.003909542664758058</v>
+        <v>0.8991533332388233</v>
       </c>
       <c r="L11" t="n">
-        <v>0.07019473771107863</v>
+        <v>0.002913333578954344</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1624862806028097</v>
+        <v>0.04999473038994844</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1453422968003023</v>
+        <v>0.3066874985617211</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2284810908821382</v>
+        <v>0.0222700515400583</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8725893118932303</v>
+        <v>0.4777219304558872</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4908725049340531</v>
+        <v>0.5347336284676752</v>
       </c>
       <c r="R11" t="n">
-        <v>0.8700730786784685</v>
+        <v>0.7257530189707937</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8740036075863031</v>
+        <v>0.7342928982282679</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9933288133692233</v>
+        <v>0.7325417468276127</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1234524076576791</v>
+        <v>0.2932714266248758</v>
       </c>
       <c r="V11" t="n">
-        <v>0.76282725621804</v>
+        <v>0.7311950914649425</v>
       </c>
       <c r="W11" t="n">
-        <v>0.7642616321208205</v>
+        <v>0.8427503666966811</v>
       </c>
       <c r="X11" t="n">
-        <v>0.6399722675930642</v>
+        <v>0.6360800634909751</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7034620901945985</v>
+        <v>0.7967597065703683</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5021981111053888</v>
+        <v>0.8815148901646578</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.3265103906561823</v>
+        <v>0.3673743973190412</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.3954330108713963</v>
+        <v>0.4466441793030969</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1429167531532488</v>
+        <v>0.3473974467248081</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1709,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.3198604260180067</v>
+        <v>0.2435296378992828</v>
       </c>
     </row>
     <row r="2">
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4164710092019479</v>
+        <v>0.5013013628281249</v>
       </c>
     </row>
     <row r="3">
@@ -1729,7 +1729,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8503893406888184</v>
+        <v>0.8655066661178145</v>
       </c>
     </row>
     <row r="4">
@@ -1739,7 +1739,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9762872001579327</v>
+        <v>0.977762458842045</v>
       </c>
     </row>
     <row r="5">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4272611301508932</v>
+        <v>0.4641968728028708</v>
       </c>
     </row>
     <row r="6">
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8100274721065699</v>
+        <v>0.8200103668100942</v>
       </c>
     </row>
     <row r="7">
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.706291299163792</v>
+        <v>0.7720669637268283</v>
       </c>
     </row>
     <row r="8">
@@ -1779,7 +1779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6056738502188385</v>
+        <v>0.6209278762029611</v>
       </c>
     </row>
     <row r="9">
@@ -1789,7 +1789,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7395758413777165</v>
+        <v>0.7912756143809421</v>
       </c>
     </row>
     <row r="10">
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7752826729581171</v>
+        <v>0.8165147229893677</v>
       </c>
     </row>
     <row r="11">
@@ -1809,7 +1809,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2562964095330632</v>
+        <v>0.2290527848478375</v>
       </c>
     </row>
   </sheetData>

--- a/Results/resultados_regresiones ols.xlsx
+++ b/Results/resultados_regresiones ols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="R2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="R2 Ajustado" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="P-Values" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Regresiones con R2 &gt; 0.1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,107 +431,107 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.4030976049049029</v>
+        <v>0.2975077791805114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6064956066065673</v>
+        <v>0.08139247997122945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.893876353733588</v>
+        <v>0.3026586178259351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9824531901800512</v>
+        <v>0.2656292790345846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5772178449460152</v>
+        <v>0.2519011671556074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.85797693006109</v>
+        <v>0.2745269217484355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8201465885657004</v>
+        <v>0.1757239876107736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.700888402316399</v>
+        <v>0.3045215530238732</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8353034144724621</v>
+        <v>0.1824913255230741</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8552186486087979</v>
+        <v>0.2575674227949097</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3916744630439968</v>
+        <v>0.2104808398137145</v>
       </c>
     </row>
   </sheetData>
@@ -560,107 +560,107 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2435296378992828</v>
+        <v>0.2112368046939076</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5013013628281249</v>
+        <v>-0.03141896985686521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8655066661178145</v>
+        <v>0.2170202024712253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.977762458842045</v>
+        <v>0.175443401021288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4641968728028708</v>
+        <v>0.1600293806659452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8200103668100942</v>
+        <v>0.1854337366999979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7720669637268283</v>
+        <v>0.07449710889630723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6209278762029611</v>
+        <v>0.2191119191846997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7912756143809421</v>
+        <v>0.08209552339432891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8165147229893677</v>
+        <v>0.1663914922609513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2290527848478375</v>
+        <v>0.113522346457504</v>
       </c>
     </row>
   </sheetData>
@@ -674,7 +674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -689,998 +689,569 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.8417814867344535</v>
+        <v>0.5871099098072941</v>
       </c>
       <c r="C1" t="n">
-        <v>0.2636718498636896</v>
+        <v>0.6843594466154841</v>
       </c>
       <c r="D1" t="n">
-        <v>0.3491375520941665</v>
+        <v>0.4927682309334562</v>
       </c>
       <c r="E1" t="n">
-        <v>0.001831926995127487</v>
+        <v>0.005669943832289237</v>
       </c>
       <c r="F1" t="n">
-        <v>0.02952172182078986</v>
+        <v>3.528997134504639e-06</v>
       </c>
       <c r="G1" t="n">
-        <v>0.007424627989436793</v>
+        <v>0.1734061820135714</v>
       </c>
       <c r="H1" t="n">
-        <v>0.2057611122359624</v>
+        <v>0.2764889243913593</v>
       </c>
       <c r="I1" t="n">
-        <v>0.5190950201301034</v>
+        <v>0.001071925980774875</v>
       </c>
       <c r="J1" t="n">
-        <v>0.6319878365243203</v>
+        <v>0.8486016766390565</v>
       </c>
       <c r="K1" t="n">
-        <v>0.7990613037635395</v>
+        <v>0.114143337022598</v>
       </c>
       <c r="L1" t="n">
-        <v>0.6560588825519099</v>
+        <v>0.05681658806347645</v>
       </c>
       <c r="M1" t="n">
-        <v>0.1177474474192865</v>
+        <v>0.006256621194103182</v>
       </c>
       <c r="N1" t="n">
-        <v>0.2879516253139552</v>
+        <v>0.1927898828868132</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6800990368288748</v>
+        <v>0.5006665847935947</v>
       </c>
       <c r="P1" t="n">
-        <v>0.004373669065591547</v>
-      </c>
-      <c r="Q1" t="n">
-        <v>0.5513279371292847</v>
-      </c>
-      <c r="R1" t="n">
-        <v>0.0001786393149171622</v>
-      </c>
-      <c r="S1" t="n">
-        <v>0.007915089335447328</v>
-      </c>
-      <c r="T1" t="n">
-        <v>0.2875377601078297</v>
-      </c>
-      <c r="U1" t="n">
-        <v>0.007031975460814187</v>
-      </c>
-      <c r="V1" t="n">
-        <v>0.4518882736233086</v>
-      </c>
-      <c r="W1" t="n">
-        <v>0.2778554665154113</v>
-      </c>
-      <c r="X1" t="n">
-        <v>0.3721994913173464</v>
-      </c>
-      <c r="Y1" t="n">
-        <v>0.5799295172998674</v>
-      </c>
-      <c r="Z1" t="n">
-        <v>0.003294461839891532</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>0.03885444649476135</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>0.411155395245513</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>0.781898728334977</v>
+        <v>0.6429095808512635</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
+          <t>Indeg_Var.Dep_RedeControlExtAusencia</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2877176475871601</v>
+        <v>0.1099721144980284</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7255748450487481</v>
+        <v>0.3227258476467408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7871812851833953</v>
+        <v>0.5217343328310513</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4484667184835615</v>
+        <v>0.7848598988513311</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9169092419289331</v>
+        <v>0.4605454485150772</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2891650357157335</v>
+        <v>0.0930398421399606</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1500777229501145</v>
+        <v>0.9278307698777537</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1533529512743357</v>
+        <v>0.4377327782875818</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1450724422004886</v>
+        <v>0.3471216222864566</v>
       </c>
       <c r="K2" t="n">
-        <v>1.396574416626498e-05</v>
+        <v>0.8448817797578159</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5194193561961999</v>
+        <v>0.3010777606349593</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5703560503157827</v>
+        <v>0.4952351818358981</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9899182034602581</v>
+        <v>0.9631532221846413</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2564765529979961</v>
+        <v>0.929833519917926</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6015045225530169</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.3838518521663956</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.2761910523376168</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.8077381518914378</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.2348669734402411</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.2519416315517081</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.7882879715944624</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.4450394162959888</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.09238970178365447</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.1344717022505104</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.9179729834555501</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.0367756414646562</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.4891279433371702</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.005310142642911577</v>
+        <v>0.9722655053274517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1392351627516931</v>
+        <v>0.857728481762688</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7846604166900242</v>
+        <v>0.05593123173526363</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8174925336744231</v>
+        <v>0.05538014208340009</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7882729785918954</v>
+        <v>0.2761275897168005</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7825959106531287</v>
+        <v>0.6379851249809154</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7466047066316079</v>
+        <v>0.08972894185962778</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6360649338641534</v>
+        <v>0.0169364020399242</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6260799358526619</v>
+        <v>0.02936378657403643</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3426886512268735</v>
+        <v>0.3665064324586048</v>
       </c>
       <c r="K3" t="n">
-        <v>6.004594807102496e-05</v>
+        <v>0.1625110725437194</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3194843748277362</v>
+        <v>0.4844290570208263</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04738943242446927</v>
+        <v>0.07737829346411755</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7449919104363861</v>
+        <v>0.7884028739313199</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7054281364430607</v>
+        <v>0.01787833048969878</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8704724164480477</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.1627863688236336</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.8130169301676021</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.412565657647795</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.04434004313820478</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.3964671960201978</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1500039602385768</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.880346510429217</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.2707385235151337</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.4031453323424985</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.5913953938195777</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.3727738342212887</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>9.290426594768818e-13</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1.684326480021623e-10</v>
+        <v>0.5855786139580071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1906455618712175</v>
+        <v>0.8370204650224359</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8044352780062838</v>
+        <v>0.05958107407585303</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8153779080077495</v>
+        <v>0.9571173743141411</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3197584379810046</v>
+        <v>0.8182676470754537</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1246946079099105</v>
+        <v>0.5920711010367892</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2291778379007358</v>
+        <v>0.5025535805869454</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7780381486098956</v>
+        <v>0.4555601454956781</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1733665987243121</v>
+        <v>0.02916465522662615</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8322131997760263</v>
+        <v>0.001375974032215455</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1254192285327839</v>
+        <v>0.1370693978438232</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5961007195949408</v>
+        <v>0.0122416755094038</v>
       </c>
       <c r="M4" t="n">
-        <v>0.425057813102161</v>
+        <v>0.3490261742066505</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7205240593872</v>
+        <v>0.6336290056635226</v>
       </c>
       <c r="O4" t="n">
-        <v>0.007720408535820807</v>
+        <v>0.7136185335748586</v>
       </c>
       <c r="P4" t="n">
-        <v>0.2607033574426834</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.9771253766656359</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.7481241177333078</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.4527261737256522</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.8024809902907575</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.2804982888409051</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.8481666570122549</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.668469258476346e-05</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.243837954782923</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.4602202293741382</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.0106410310817369</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.8324527989416285</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>6.235001848249817e-07</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>3.499982095491665e-70</v>
+        <v>0.03882242188083646</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2793736069586516</v>
+        <v>0.9666277915415636</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2693033711686947</v>
+        <v>0.8367851106951142</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4029014510478366</v>
+        <v>0.04515252702842095</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9393458999190418</v>
+        <v>0.6860569977437405</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5181410931839201</v>
+        <v>0.4210915706308268</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5155428596860552</v>
+        <v>0.142590009940323</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7930827948791195</v>
+        <v>0.7354387746248618</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3987791225799181</v>
+        <v>0.01079456835821114</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09213664838554893</v>
+        <v>0.6413422931531647</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01021316924080781</v>
+        <v>0.417159844800004</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001978390814142614</v>
+        <v>0.6122833461900017</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3438504296600433</v>
+        <v>0.3925073766978993</v>
       </c>
       <c r="N5" t="n">
-        <v>0.3091172117950931</v>
+        <v>0.4022797918992096</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02597331028223798</v>
+        <v>0.880408951874649</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2045105333564287</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.5834667699368441</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.1473890083232126</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.2114159974638469</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.1272806626586249</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.04335345676010047</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.6589035495422755</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.4137017656576902</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.8845209252409266</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.9450960778425017</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.1643127959816969</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.2399702849326643</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.00791587355061393</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.6375329673362953</v>
+        <v>0.257168304306771</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8888690092741193</v>
+        <v>0.1856285190608717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3870787123771302</v>
+        <v>0.6594777670229235</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3828913455822693</v>
+        <v>0.3636600021778412</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5520087646744498</v>
+        <v>0.0267491539185329</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6656171798122086</v>
+        <v>0.8129187781229038</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5799333461671046</v>
+        <v>0.2605145738836761</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7492545102784565</v>
+        <v>0.6507389634348355</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6138964989600562</v>
+        <v>0.141029233360431</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3839476943056743</v>
+        <v>0.1219328991478354</v>
       </c>
       <c r="K6" t="n">
-        <v>4.731348292632261e-07</v>
+        <v>0.4430694212579356</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7403094223341202</v>
+        <v>0.4054115199931503</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7057612133479698</v>
+        <v>0.7860800746318967</v>
       </c>
       <c r="N6" t="n">
-        <v>0.8624848837179754</v>
+        <v>0.5935121068824758</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3515561900032863</v>
+        <v>0.3510903642994614</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3428254979900842</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.2015967383494368</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.7301602375423486</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.5833638823009388</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0.2124971030055944</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0.05761365879240834</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.9305864251026007</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.4491842155877296</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.3985234782848466</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.4183133037389279</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.4213813573519382</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0.02083235999332741</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.01968638982655843</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.149379903756273e-07</v>
+        <v>0.7275363575954623</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
+          <t>Indeg_RedeRepar_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3385675772847971</v>
+        <v>0.1958231059412099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5913153336064095</v>
+        <v>0.7882559712484207</v>
       </c>
       <c r="D7" t="n">
-        <v>0.590023518139127</v>
+        <v>0.6949986384692902</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9660608433728579</v>
+        <v>0.2920094846955635</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7489287389150405</v>
+        <v>0.6915988165351883</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4128594444863931</v>
+        <v>0.5712292743514358</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8745547572803084</v>
+        <v>0.1458831970324523</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6456277729489939</v>
+        <v>0.1578294091036259</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9418691009723417</v>
+        <v>0.2972627647234575</v>
       </c>
       <c r="K7" t="n">
-        <v>3.267811814618234e-08</v>
+        <v>0.7095264565401296</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9921931360726339</v>
+        <v>0.7926190193973101</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7929851751607471</v>
+        <v>0.4894643078850685</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6766351759008117</v>
+        <v>0.7129693670162514</v>
       </c>
       <c r="O7" t="n">
-        <v>0.05325082163740977</v>
+        <v>0.7441126864052519</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4622801949202123</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.1627164406604002</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.5451968679644119</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.7376685388992394</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.1277937174642392</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.2539479789992287</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0.6431676656353211</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.3753537377708841</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.8806331039113969</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.9580801344602922</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.05027531843256238</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>0.2288388569330775</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.008065795958136451</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.005731655478105268</v>
+        <v>0.211226248624985</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4815364527263796</v>
+        <v>0.07675889071852671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4122353442486989</v>
+        <v>0.1087557356612411</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3715461192521478</v>
+        <v>0.3832112285886522</v>
       </c>
       <c r="E8" t="n">
-        <v>0.732973759996884</v>
+        <v>0.870614626565312</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9032200809230015</v>
+        <v>0.7222995309993306</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4291432550369882</v>
+        <v>0.27748119328819</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7251384243140978</v>
+        <v>0.553855620323606</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7310739131640529</v>
+        <v>0.003924089939483506</v>
       </c>
       <c r="J8" t="n">
-        <v>0.741657697958336</v>
+        <v>0.08760208363740514</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001733424875418957</v>
+        <v>0.6461999738379112</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8239895163596893</v>
+        <v>0.08525859408445279</v>
       </c>
       <c r="M8" t="n">
-        <v>0.5923561588097672</v>
+        <v>0.6912506563867162</v>
       </c>
       <c r="N8" t="n">
-        <v>0.6506785084388116</v>
+        <v>0.06144042089520021</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05620153671144256</v>
+        <v>0.5566358580757439</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5075084946736176</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.002316157394930551</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.6920184641891691</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.1127203808070001</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.02043886424197334</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.09335896171318911</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.5939370117904024</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.09266254138929038</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.5033167296558436</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.9344164284060499</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.3925207522600239</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.03462839209902987</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.00677886816050082</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0.2671006525536584</v>
+        <v>0.4619263992570621</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqPrq</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8383192855084403</v>
+        <v>0.03630200493727731</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5854496272034384</v>
+        <v>0.7080833296387947</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4938061321849537</v>
+        <v>0.3660994602073658</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9136245806274713</v>
+        <v>0.07515548015442566</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9885995098988911</v>
+        <v>0.61490227509856</v>
       </c>
       <c r="G9" t="n">
-        <v>0.179316007407934</v>
+        <v>0.7200099270408716</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7898796233105507</v>
+        <v>0.1108558652554111</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8238501640590992</v>
+        <v>0.1649568032090461</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6227902732045114</v>
+        <v>0.2311377573274198</v>
       </c>
       <c r="K9" t="n">
-        <v>8.823026187831428e-09</v>
+        <v>0.8680510000644317</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8598449637559182</v>
+        <v>0.7460864624739915</v>
       </c>
       <c r="M9" t="n">
-        <v>0.8730617165299122</v>
+        <v>0.4316617036593341</v>
       </c>
       <c r="N9" t="n">
-        <v>0.5570263503051714</v>
+        <v>0.9160576042128683</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4031145585822853</v>
+        <v>0.5912114779244776</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5289149427108741</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.3502003093629891</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.9413664688480399</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.9771477684648202</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.1424932631560476</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.2375070379051433</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.5126738800007082</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.8726255529127155</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.9438220778280945</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.9822088563986067</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.4658449088655842</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>0.101118778471938</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0.1550393544629821</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>4.373952299096444e-05</v>
+        <v>0.9658232963623526</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5979756718589033</v>
+        <v>0.2448111498562352</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5109596337739453</v>
+        <v>0.9466995336192505</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4928860751994901</v>
+        <v>0.8149110993458148</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7428750967138101</v>
+        <v>0.07201493311158094</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8722659262381702</v>
+        <v>0.6872771097895436</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5076815643905579</v>
+        <v>0.3437558054844577</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9472624341217533</v>
+        <v>0.3533180176073616</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6716699282365748</v>
+        <v>0.1260494852847364</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6426000900467481</v>
+        <v>0.09942640382701547</v>
       </c>
       <c r="K10" t="n">
-        <v>4.408522280783401e-08</v>
+        <v>0.3669427509332215</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9435534060252848</v>
+        <v>0.5679027548238191</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7549283449403535</v>
+        <v>0.8619646085757067</v>
       </c>
       <c r="N10" t="n">
-        <v>0.6291359308863587</v>
+        <v>0.7356415428287215</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1360485182418233</v>
+        <v>0.8627183201304535</v>
       </c>
       <c r="P10" t="n">
-        <v>0.3362406737890848</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.17379829952855</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.5443093790855589</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.5904732724472004</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0.1276830543485661</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0.128625649574601</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.8190240897537685</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.4155846495750933</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.7375489185742377</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.8407188989213353</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.1149326657047986</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.06063316783975337</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.006217571373871</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>5.821638784093659e-05</v>
+        <v>0.1589351632757006</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6822040747973401</v>
+        <v>0.6338665578896686</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01731377044250184</v>
+        <v>0.3999837212870402</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05879220261716511</v>
+        <v>0.01270689535163674</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9177869490347257</v>
+        <v>0.7158918896577953</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7904638206958379</v>
+        <v>0.6807459985595786</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5707617468777531</v>
+        <v>0.9810128831127594</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1814230251005013</v>
+        <v>0.396967081655194</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09172334041826932</v>
+        <v>0.2759370884115541</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6116929721267488</v>
+        <v>0.5012150166415303</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8991533332388233</v>
+        <v>0.8576598359924301</v>
       </c>
       <c r="L11" t="n">
-        <v>0.002913333578954344</v>
+        <v>0.7495585413910693</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04999473038994844</v>
+        <v>0.2187726544676396</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3066874985617211</v>
+        <v>0.8110504865490282</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0222700515400583</v>
+        <v>0.8263936975510968</v>
       </c>
       <c r="P11" t="n">
-        <v>0.4777219304558872</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.5347336284676752</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.7257530189707937</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.7342928982282679</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.7325417468276127</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.2932714266248758</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.7311950914649425</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.8427503666966811</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.6360800634909751</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.7967597065703683</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.8815148901646578</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.3673743973190412</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0.4466441793030969</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0.3473974467248081</v>
+        <v>0.9708223914872041</v>
       </c>
     </row>
   </sheetData>
@@ -1709,107 +1280,77 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.2435296378992828</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>OutDeg_Var.Dep_RedeControlExtAusencia</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5013013628281249</v>
+        <v>0.2112368046939076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecDiqCint</t>
+          <t>Indeg_Var.Dep_ApoioSpecDiqCint</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8655066661178145</v>
+        <v>0.2170202024712253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_ApoioSpecTubos</t>
+          <t>Indeg_Var.Dep_ApoioSpecTubos</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.977762458842045</v>
+        <v>0.175443401021288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedApoiLevntDiCin</t>
+          <t>Indeg_Var.Dep_RedApoiLevntDiCin</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4641968728028708</v>
+        <v>0.1600293806659452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OutDeg_RedCont_DiqPriqDiqCint</t>
+          <t>Indeg_RedCont_DiqPriqDiqCint</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8200103668100942</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>OutDeg_RedeRepar_DiqPriqDiqCint</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.7720669637268283</v>
+        <v>0.1854337366999979</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqCin</t>
+          <t>Indeg_Red-Val_Cont1Rep2DiqCin</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6209278762029611</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>OutDeg_Red-Val_Cont1Rep2DiqPrq</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.7912756143809421</v>
+        <v>0.2191119191846997</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OutDeg_ContRep2_DiqPrqCin</t>
+          <t>Indeg_ContRep2_DiqPrqCin</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8165147229893677</v>
+        <v>0.1663914922609513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OutDeg_Var.Dep_RedePartilhaAgu</t>
+          <t>Indeg_Var.Dep_RedePartilhaAgu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.2290527848478375</v>
+        <v>0.113522346457504</v>
       </c>
     </row>
   </sheetData>
